--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
@@ -4137,36 +4137,6 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4212,6 +4182,36 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
@@ -4245,7 +4245,7 @@
         <xdr:cNvPr id="2" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4298,7 +4298,7 @@
         <xdr:cNvPr id="3" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +4351,7 @@
         <xdr:cNvPr id="4" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4404,7 +4404,7 @@
         <xdr:cNvPr id="5" name="Shape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,7 +4715,7 @@
   <dimension ref="A1:Q815"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4737,18 +4737,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="37" t="s">
@@ -4864,25 +4864,25 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="104">
         <v>1</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="109" t="s">
         <v>573</v>
       </c>
       <c r="C9" s="32" t="s">
@@ -4897,7 +4897,7 @@
       <c r="F9" s="13">
         <v>13</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="116" t="s">
         <v>429</v>
       </c>
       <c r="H9" s="32" t="s">
@@ -4914,7 +4914,7 @@
       <c r="A10" s="104">
         <v>2</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="109" t="s">
         <v>400</v>
       </c>
       <c r="C10" s="32" t="s">
@@ -4929,7 +4929,7 @@
       <c r="F10" s="13">
         <v>14</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="116" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="32" t="s">
@@ -4946,7 +4946,7 @@
       <c r="A11" s="104">
         <v>3</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="109" t="s">
         <v>686</v>
       </c>
       <c r="C11" s="32" t="s">
@@ -4961,7 +4961,7 @@
       <c r="F11" s="13">
         <v>15</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="117" t="s">
         <v>482</v>
       </c>
       <c r="H11" s="32" t="s">
@@ -4978,7 +4978,7 @@
       <c r="A12" s="104">
         <v>4</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="109" t="s">
         <v>685</v>
       </c>
       <c r="C12" s="85" t="s">
@@ -4993,7 +4993,7 @@
       <c r="F12" s="13">
         <v>16</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="117" t="s">
         <v>481</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -5010,7 +5010,7 @@
       <c r="A13" s="104">
         <v>5</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="109" t="s">
         <v>418</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -5025,7 +5025,7 @@
       <c r="F13" s="13">
         <v>17</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="119" t="s">
         <v>340</v>
       </c>
       <c r="H13" s="76" t="s">
@@ -5042,7 +5042,7 @@
       <c r="A14" s="104">
         <v>6</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="109" t="s">
         <v>423</v>
       </c>
       <c r="C14" s="85" t="s">
@@ -5057,7 +5057,7 @@
       <c r="F14" s="13">
         <v>18</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="117" t="s">
         <v>560</v>
       </c>
       <c r="H14" s="76" t="s">
@@ -5074,7 +5074,7 @@
       <c r="A15" s="104">
         <v>7</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="115" t="s">
         <v>688</v>
       </c>
       <c r="C15" s="85" t="s">
@@ -5089,7 +5089,7 @@
       <c r="F15" s="13">
         <v>19</v>
       </c>
-      <c r="G15" s="128" t="s">
+      <c r="G15" s="118" t="s">
         <v>515</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5106,7 +5106,7 @@
       <c r="A16" s="104">
         <v>8</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="110" t="s">
         <v>689</v>
       </c>
       <c r="C16" s="85" t="s">
@@ -5121,7 +5121,7 @@
       <c r="F16" s="13">
         <v>20</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="118" t="s">
         <v>669</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -5138,7 +5138,7 @@
       <c r="A17" s="104">
         <v>9</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="114" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="32" t="s">
@@ -5153,7 +5153,7 @@
       <c r="F17" s="13">
         <v>21</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="118" t="s">
         <v>358</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -5170,7 +5170,7 @@
       <c r="A18" s="104">
         <v>10</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="114" t="s">
         <v>351</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -5185,7 +5185,7 @@
       <c r="F18" s="13">
         <v>22</v>
       </c>
-      <c r="G18" s="130" t="s">
+      <c r="G18" s="120" t="s">
         <v>535</v>
       </c>
       <c r="H18" s="78" t="s">
@@ -5202,7 +5202,7 @@
       <c r="A19" s="104">
         <v>11</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="114" t="s">
         <v>343</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -5217,7 +5217,7 @@
       <c r="F19" s="13">
         <v>23</v>
       </c>
-      <c r="G19" s="128" t="s">
+      <c r="G19" s="118" t="s">
         <v>416</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -5234,7 +5234,7 @@
       <c r="A20" s="104">
         <v>12</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="115" t="s">
         <v>421</v>
       </c>
       <c r="C20" s="85" t="s">
@@ -5249,34 +5249,34 @@
       <c r="F20" s="13">
         <v>24</v>
       </c>
-      <c r="G20" s="119" t="s">
+      <c r="G20" s="109" t="s">
         <v>417</v>
       </c>
-      <c r="H20" s="121" t="s">
+      <c r="H20" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="122">
+      <c r="I20" s="112">
         <v>12</v>
       </c>
-      <c r="J20" s="123" t="s">
+      <c r="J20" s="113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -5284,7 +5284,7 @@
       <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="122" t="s">
         <v>558</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5299,7 +5299,7 @@
       <c r="F22" s="11">
         <v>7</v>
       </c>
-      <c r="G22" s="124" t="s">
+      <c r="G22" s="114" t="s">
         <v>342</v>
       </c>
       <c r="H22" s="29" t="s">
@@ -5316,7 +5316,7 @@
       <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="122" t="s">
         <v>446</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5331,7 +5331,7 @@
       <c r="F23" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="126" t="s">
+      <c r="G23" s="116" t="s">
         <v>499</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -5348,7 +5348,7 @@
       <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="122" t="s">
         <v>403</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5363,7 +5363,7 @@
       <c r="F24" s="11">
         <v>9</v>
       </c>
-      <c r="G24" s="126" t="s">
+      <c r="G24" s="116" t="s">
         <v>283</v>
       </c>
       <c r="H24" s="29" t="s">
@@ -5380,7 +5380,7 @@
       <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="114" t="s">
         <v>614</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5395,7 +5395,7 @@
       <c r="F25" s="11">
         <v>10</v>
       </c>
-      <c r="G25" s="131" t="s">
+      <c r="G25" s="121" t="s">
         <v>284</v>
       </c>
       <c r="H25" s="29" t="s">
@@ -5412,7 +5412,7 @@
       <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="114" t="s">
         <v>613</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5427,7 +5427,7 @@
       <c r="F26" s="11">
         <v>11</v>
       </c>
-      <c r="G26" s="126" t="s">
+      <c r="G26" s="116" t="s">
         <v>483</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -5442,7 +5442,7 @@
       <c r="A27" s="72">
         <v>6</v>
       </c>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="114" t="s">
         <v>692</v>
       </c>
       <c r="C27" s="68" t="s">
@@ -5457,7 +5457,7 @@
       <c r="F27" s="11">
         <v>12</v>
       </c>
-      <c r="G27" s="133" t="s">
+      <c r="G27" s="123" t="s">
         <v>420</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -5471,18 +5471,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
     </row>
     <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="11">
@@ -5597,20 +5597,20 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -5863,20 +5863,20 @@
       <c r="J41" s="98"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="124" t="s">
         <v>472</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="114"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="126"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -6012,20 +6012,20 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="114"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="126"/>
     </row>
     <row r="48" spans="1:16" ht="16.5">
       <c r="A48" s="11">
@@ -6408,18 +6408,18 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="114"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="126"/>
     </row>
     <row r="61" spans="1:10" ht="16.5">
       <c r="A61" s="11">
@@ -6484,20 +6484,20 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="114"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="126"/>
     </row>
     <row r="64" spans="1:10" ht="16.5">
       <c r="A64" s="11">
@@ -6650,20 +6650,20 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="113" t="s">
+      <c r="B69" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="114"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="126"/>
     </row>
     <row r="70" spans="1:10" ht="16.5">
       <c r="A70" s="11">
@@ -7144,20 +7144,20 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="112" t="s">
+      <c r="A85" s="124" t="s">
         <v>474</v>
       </c>
-      <c r="B85" s="113" t="s">
+      <c r="B85" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="113"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="114"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="125"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="126"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7587,20 +7587,20 @@
       </c>
     </row>
     <row r="100" spans="1:17" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A100" s="112" t="s">
+      <c r="A100" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="113" t="s">
+      <c r="B100" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="113"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="113"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="113"/>
-      <c r="H100" s="113"/>
-      <c r="I100" s="113"/>
-      <c r="J100" s="114"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="125"/>
+      <c r="I100" s="125"/>
+      <c r="J100" s="126"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -8026,18 +8026,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A114" s="112" t="s">
+      <c r="A114" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="113"/>
-      <c r="G114" s="113"/>
-      <c r="H114" s="113"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="114"/>
+      <c r="B114" s="125"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="125"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="126"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
@@ -8344,20 +8344,20 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A125" s="112" t="s">
+      <c r="A125" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="113" t="s">
+      <c r="B125" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="113"/>
-      <c r="H125" s="113"/>
-      <c r="I125" s="113"/>
-      <c r="J125" s="114"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
+      <c r="G125" s="125"/>
+      <c r="H125" s="125"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="126"/>
     </row>
     <row r="126" spans="1:12" ht="16.5">
       <c r="A126" s="11">
@@ -9066,18 +9066,18 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A150" s="112" t="s">
+      <c r="A150" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="113"/>
-      <c r="C150" s="113"/>
-      <c r="D150" s="113"/>
-      <c r="E150" s="113"/>
-      <c r="F150" s="113"/>
-      <c r="G150" s="113"/>
-      <c r="H150" s="113"/>
-      <c r="I150" s="113"/>
-      <c r="J150" s="114"/>
+      <c r="B150" s="125"/>
+      <c r="C150" s="125"/>
+      <c r="D150" s="125"/>
+      <c r="E150" s="125"/>
+      <c r="F150" s="125"/>
+      <c r="G150" s="125"/>
+      <c r="H150" s="125"/>
+      <c r="I150" s="125"/>
+      <c r="J150" s="126"/>
     </row>
     <row r="151" spans="1:10" ht="16.5">
       <c r="A151" s="80">
@@ -9912,18 +9912,18 @@
       </c>
     </row>
     <row r="177" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A177" s="112" t="s">
+      <c r="A177" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="113"/>
-      <c r="C177" s="113"/>
-      <c r="D177" s="113"/>
-      <c r="E177" s="113"/>
-      <c r="F177" s="113"/>
-      <c r="G177" s="113"/>
-      <c r="H177" s="113"/>
-      <c r="I177" s="113"/>
-      <c r="J177" s="114"/>
+      <c r="B177" s="125"/>
+      <c r="C177" s="125"/>
+      <c r="D177" s="125"/>
+      <c r="E177" s="125"/>
+      <c r="F177" s="125"/>
+      <c r="G177" s="125"/>
+      <c r="H177" s="125"/>
+      <c r="I177" s="125"/>
+      <c r="J177" s="126"/>
     </row>
     <row r="178" spans="1:11" ht="16.5">
       <c r="A178" s="11">
@@ -10207,20 +10207,20 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A187" s="112" t="s">
+      <c r="A187" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="113" t="s">
+      <c r="B187" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="C187" s="113"/>
-      <c r="D187" s="113"/>
-      <c r="E187" s="113"/>
-      <c r="F187" s="113"/>
-      <c r="G187" s="113"/>
-      <c r="H187" s="113"/>
-      <c r="I187" s="113"/>
-      <c r="J187" s="114"/>
+      <c r="C187" s="125"/>
+      <c r="D187" s="125"/>
+      <c r="E187" s="125"/>
+      <c r="F187" s="125"/>
+      <c r="G187" s="125"/>
+      <c r="H187" s="125"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="126"/>
     </row>
     <row r="188" spans="1:11" ht="16.5">
       <c r="A188" s="13">
@@ -10439,18 +10439,18 @@
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="16.5">
-      <c r="A196" s="109" t="s">
+      <c r="A196" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="B196" s="110"/>
-      <c r="C196" s="110"/>
-      <c r="D196" s="110"/>
-      <c r="E196" s="110"/>
-      <c r="F196" s="110"/>
-      <c r="G196" s="110"/>
-      <c r="H196" s="110"/>
-      <c r="I196" s="110"/>
-      <c r="J196" s="111"/>
+      <c r="B196" s="132"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="132"/>
+      <c r="E196" s="132"/>
+      <c r="F196" s="132"/>
+      <c r="G196" s="132"/>
+      <c r="H196" s="132"/>
+      <c r="I196" s="132"/>
+      <c r="J196" s="133"/>
     </row>
     <row r="197" spans="1:10" ht="16.5">
       <c r="A197" s="8"/>
@@ -15306,6 +15306,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A196:J196"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A177:J177"/>
+    <mergeCell ref="A150:J150"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A63:J63"/>
@@ -15317,13 +15324,6 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A196:J196"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A150:J150"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C131" r:id="rId1"/>

--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
@@ -3809,7 +3809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4182,6 +4182,15 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4203,14 +4212,8 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4245,7 +4248,7 @@
         <xdr:cNvPr id="2" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4298,7 +4301,7 @@
         <xdr:cNvPr id="3" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +4354,7 @@
         <xdr:cNvPr id="4" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4404,7 +4407,7 @@
         <xdr:cNvPr id="5" name="Shape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4714,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4737,18 +4740,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="37" t="s">
@@ -4864,18 +4867,18 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
@@ -5263,20 +5266,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -5471,24 +5474,24 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="109" t="s">
         <v>304</v>
       </c>
       <c r="C29" s="29" t="s">
@@ -5503,7 +5506,7 @@
       <c r="F29" s="11">
         <v>5</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="114" t="s">
         <v>609</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -5520,7 +5523,7 @@
       <c r="A30" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="109" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="29" t="s">
@@ -5535,7 +5538,7 @@
       <c r="F30" s="11">
         <v>6</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="114" t="s">
         <v>504</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -5559,7 +5562,7 @@
       <c r="F31" s="11">
         <v>7</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="114" t="s">
         <v>405</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -5583,7 +5586,7 @@
       <c r="F32" s="11">
         <v>8</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="114" t="s">
         <v>445</v>
       </c>
       <c r="H32" s="32" t="s">
@@ -5597,20 +5600,20 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="129"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -5622,7 +5625,7 @@
       <c r="A34" s="80">
         <v>1</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="122" t="s">
         <v>621</v>
       </c>
       <c r="C34" s="82" t="s">
@@ -5654,7 +5657,7 @@
       <c r="A35" s="80">
         <v>2</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="122" t="s">
         <v>622</v>
       </c>
       <c r="C35" s="82" t="s">
@@ -5686,7 +5689,7 @@
       <c r="A36" s="80">
         <v>3</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="110" t="s">
         <v>513</v>
       </c>
       <c r="C36" s="82" t="s">
@@ -5701,7 +5704,7 @@
       <c r="F36" s="80">
         <v>11</v>
       </c>
-      <c r="G36" s="90" t="s">
+      <c r="G36" s="123" t="s">
         <v>455</v>
       </c>
       <c r="H36" s="82" t="s">
@@ -5733,7 +5736,7 @@
       <c r="F37" s="80">
         <v>12</v>
       </c>
-      <c r="G37" s="90" t="s">
+      <c r="G37" s="123" t="s">
         <v>456</v>
       </c>
       <c r="H37" s="82" t="s">
@@ -5750,7 +5753,7 @@
       <c r="A38" s="80">
         <v>5</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="114" t="s">
         <v>668</v>
       </c>
       <c r="C38" s="29" t="s">
@@ -5765,7 +5768,7 @@
       <c r="F38" s="80">
         <v>13</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="134" t="s">
         <v>222</v>
       </c>
       <c r="H38" s="82" t="s">
@@ -5782,7 +5785,7 @@
       <c r="A39" s="80">
         <v>6</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="114" t="s">
         <v>438</v>
       </c>
       <c r="C39" s="29"/>
@@ -5793,7 +5796,7 @@
       <c r="F39" s="80">
         <v>14</v>
       </c>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="134" t="s">
         <v>223</v>
       </c>
       <c r="H39" s="82" t="s">
@@ -5810,7 +5813,7 @@
       <c r="A40" s="80">
         <v>7</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="114" t="s">
         <v>671</v>
       </c>
       <c r="C40" s="85" t="s">
@@ -5863,20 +5866,20 @@
       <c r="J41" s="98"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="124" t="s">
+      <c r="A42" s="127" t="s">
         <v>472</v>
       </c>
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="126"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="129"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -6012,20 +6015,20 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="124" t="s">
+      <c r="A47" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="125" t="s">
+      <c r="B47" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="126"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:16" ht="16.5">
       <c r="A48" s="11">
@@ -6408,18 +6411,18 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="125"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="126"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="129"/>
     </row>
     <row r="61" spans="1:10" ht="16.5">
       <c r="A61" s="11">
@@ -6484,20 +6487,20 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A63" s="124" t="s">
+      <c r="A63" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="126"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="128"/>
+      <c r="J63" s="129"/>
     </row>
     <row r="64" spans="1:10" ht="16.5">
       <c r="A64" s="11">
@@ -6650,20 +6653,20 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="124" t="s">
+      <c r="A69" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="125" t="s">
+      <c r="B69" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="126"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="128"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="129"/>
     </row>
     <row r="70" spans="1:10" ht="16.5">
       <c r="A70" s="11">
@@ -7144,20 +7147,20 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="127" t="s">
         <v>474</v>
       </c>
-      <c r="B85" s="125" t="s">
+      <c r="B85" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="125"/>
-      <c r="J85" s="126"/>
+      <c r="C85" s="128"/>
+      <c r="D85" s="128"/>
+      <c r="E85" s="128"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="128"/>
+      <c r="J85" s="129"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7587,20 +7590,20 @@
       </c>
     </row>
     <row r="100" spans="1:17" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A100" s="124" t="s">
+      <c r="A100" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="125" t="s">
+      <c r="B100" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="125"/>
-      <c r="D100" s="125"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="125"/>
-      <c r="J100" s="126"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="129"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -8026,18 +8029,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A114" s="124" t="s">
+      <c r="A114" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="125"/>
-      <c r="C114" s="125"/>
-      <c r="D114" s="125"/>
-      <c r="E114" s="125"/>
-      <c r="F114" s="125"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="125"/>
-      <c r="J114" s="126"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="128"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="128"/>
+      <c r="H114" s="128"/>
+      <c r="I114" s="128"/>
+      <c r="J114" s="129"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
@@ -8344,20 +8347,20 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A125" s="124" t="s">
+      <c r="A125" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="125" t="s">
+      <c r="B125" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="125"/>
-      <c r="D125" s="125"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="125"/>
-      <c r="G125" s="125"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="125"/>
-      <c r="J125" s="126"/>
+      <c r="C125" s="128"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="128"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="128"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="128"/>
+      <c r="J125" s="129"/>
     </row>
     <row r="126" spans="1:12" ht="16.5">
       <c r="A126" s="11">
@@ -9066,18 +9069,18 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A150" s="124" t="s">
+      <c r="A150" s="127" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="125"/>
-      <c r="C150" s="125"/>
-      <c r="D150" s="125"/>
-      <c r="E150" s="125"/>
-      <c r="F150" s="125"/>
-      <c r="G150" s="125"/>
-      <c r="H150" s="125"/>
-      <c r="I150" s="125"/>
-      <c r="J150" s="126"/>
+      <c r="B150" s="128"/>
+      <c r="C150" s="128"/>
+      <c r="D150" s="128"/>
+      <c r="E150" s="128"/>
+      <c r="F150" s="128"/>
+      <c r="G150" s="128"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="128"/>
+      <c r="J150" s="129"/>
     </row>
     <row r="151" spans="1:10" ht="16.5">
       <c r="A151" s="80">
@@ -9912,18 +9915,18 @@
       </c>
     </row>
     <row r="177" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A177" s="124" t="s">
+      <c r="A177" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="125"/>
-      <c r="C177" s="125"/>
-      <c r="D177" s="125"/>
-      <c r="E177" s="125"/>
-      <c r="F177" s="125"/>
-      <c r="G177" s="125"/>
-      <c r="H177" s="125"/>
-      <c r="I177" s="125"/>
-      <c r="J177" s="126"/>
+      <c r="B177" s="128"/>
+      <c r="C177" s="128"/>
+      <c r="D177" s="128"/>
+      <c r="E177" s="128"/>
+      <c r="F177" s="128"/>
+      <c r="G177" s="128"/>
+      <c r="H177" s="128"/>
+      <c r="I177" s="128"/>
+      <c r="J177" s="129"/>
     </row>
     <row r="178" spans="1:11" ht="16.5">
       <c r="A178" s="11">
@@ -10207,20 +10210,20 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A187" s="124" t="s">
+      <c r="A187" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="125" t="s">
+      <c r="B187" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="C187" s="125"/>
-      <c r="D187" s="125"/>
-      <c r="E187" s="125"/>
-      <c r="F187" s="125"/>
-      <c r="G187" s="125"/>
-      <c r="H187" s="125"/>
-      <c r="I187" s="125"/>
-      <c r="J187" s="126"/>
+      <c r="C187" s="128"/>
+      <c r="D187" s="128"/>
+      <c r="E187" s="128"/>
+      <c r="F187" s="128"/>
+      <c r="G187" s="128"/>
+      <c r="H187" s="128"/>
+      <c r="I187" s="128"/>
+      <c r="J187" s="129"/>
     </row>
     <row r="188" spans="1:11" ht="16.5">
       <c r="A188" s="13">
@@ -10439,18 +10442,18 @@
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="16.5">
-      <c r="A196" s="131" t="s">
+      <c r="A196" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="B196" s="132"/>
-      <c r="C196" s="132"/>
-      <c r="D196" s="132"/>
-      <c r="E196" s="132"/>
-      <c r="F196" s="132"/>
-      <c r="G196" s="132"/>
-      <c r="H196" s="132"/>
-      <c r="I196" s="132"/>
-      <c r="J196" s="133"/>
+      <c r="B196" s="125"/>
+      <c r="C196" s="125"/>
+      <c r="D196" s="125"/>
+      <c r="E196" s="125"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="125"/>
+      <c r="I196" s="125"/>
+      <c r="J196" s="126"/>
     </row>
     <row r="197" spans="1:10" ht="16.5">
       <c r="A197" s="8"/>
@@ -15306,13 +15309,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A196:J196"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A150:J150"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A63:J63"/>
@@ -15324,6 +15320,13 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A196:J196"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A177:J177"/>
+    <mergeCell ref="A150:J150"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C131" r:id="rId1"/>

--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
@@ -3809,7 +3809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3978,20 +3978,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4182,14 +4170,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4212,8 +4194,29 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4248,7 +4251,7 @@
         <xdr:cNvPr id="2" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4301,7 +4304,7 @@
         <xdr:cNvPr id="3" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4354,7 +4357,7 @@
         <xdr:cNvPr id="4" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4407,7 +4410,7 @@
         <xdr:cNvPr id="5" name="Shape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4740,18 +4743,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="37" t="s">
@@ -4867,40 +4870,40 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="104">
+      <c r="A9" s="100">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="105" t="s">
         <v>573</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="81">
         <v>25</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="83" t="s">
         <v>572</v>
       </c>
       <c r="F9" s="13">
         <v>13</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="112" t="s">
         <v>429</v>
       </c>
       <c r="H9" s="32" t="s">
@@ -4909,30 +4912,30 @@
       <c r="I9" s="3">
         <v>10</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="70" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
-      <c r="A10" s="104">
+      <c r="A10" s="100">
         <v>2</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="105" t="s">
         <v>400</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="81">
         <v>25</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="83" t="s">
         <v>590</v>
       </c>
       <c r="F10" s="13">
         <v>14</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="G10" s="112" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="32" t="s">
@@ -4946,25 +4949,25 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5">
-      <c r="A11" s="104">
+      <c r="A11" s="100">
         <v>3</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="105" t="s">
         <v>686</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="81">
         <v>25</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="83" t="s">
         <v>687</v>
       </c>
       <c r="F11" s="13">
         <v>15</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="113" t="s">
         <v>482</v>
       </c>
       <c r="H11" s="32" t="s">
@@ -4978,25 +4981,25 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5">
-      <c r="A12" s="104">
+      <c r="A12" s="100">
         <v>4</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="105" t="s">
         <v>685</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="81">
         <v>25</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="83" t="s">
         <v>684</v>
       </c>
       <c r="F12" s="13">
         <v>16</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="113" t="s">
         <v>481</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -5005,68 +5008,68 @@
       <c r="I12" s="3">
         <v>25</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="71" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
-      <c r="A13" s="104">
+      <c r="A13" s="100">
         <v>5</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="105" t="s">
         <v>418</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="81">
         <v>25</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="83" t="s">
         <v>690</v>
       </c>
       <c r="F13" s="13">
         <v>17</v>
       </c>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="72">
         <v>25</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="73" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5">
-      <c r="A14" s="104">
+      <c r="A14" s="100">
         <v>6</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="81">
         <v>25</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="85" t="s">
         <v>554</v>
       </c>
       <c r="F14" s="13">
         <v>18</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="113" t="s">
         <v>560</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="72">
         <v>25</v>
       </c>
       <c r="J14" s="27" t="s">
@@ -5074,25 +5077,25 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5">
-      <c r="A15" s="104">
+      <c r="A15" s="100">
         <v>7</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="111" t="s">
         <v>688</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="81">
         <v>25</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="85" t="s">
         <v>553</v>
       </c>
       <c r="F15" s="13">
         <v>19</v>
       </c>
-      <c r="G15" s="118" t="s">
+      <c r="G15" s="114" t="s">
         <v>515</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5106,25 +5109,25 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5">
-      <c r="A16" s="104">
+      <c r="A16" s="100">
         <v>8</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="106" t="s">
         <v>689</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="81">
         <v>25</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="85" t="s">
         <v>568</v>
       </c>
       <c r="F16" s="13">
         <v>20</v>
       </c>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="114" t="s">
         <v>669</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -5138,25 +5141,25 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="104">
-        <v>9</v>
-      </c>
-      <c r="B17" s="114" t="s">
+      <c r="A17" s="100">
+        <v>9</v>
+      </c>
+      <c r="B17" s="110" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="81">
         <v>25</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="83" t="s">
         <v>589</v>
       </c>
       <c r="F17" s="13">
         <v>21</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="114" t="s">
         <v>358</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -5170,57 +5173,57 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5">
-      <c r="A18" s="104">
+      <c r="A18" s="100">
         <v>10</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="110" t="s">
         <v>351</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="81">
         <v>25</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="83" t="s">
         <v>591</v>
       </c>
       <c r="F18" s="13">
         <v>22</v>
       </c>
-      <c r="G18" s="120" t="s">
+      <c r="G18" s="116" t="s">
         <v>535</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="74">
         <v>50</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="75" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5">
-      <c r="A19" s="104">
+      <c r="A19" s="100">
         <v>11</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="110" t="s">
         <v>343</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="81">
         <v>1</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="83" t="s">
         <v>422</v>
       </c>
       <c r="F19" s="13">
         <v>23</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="114" t="s">
         <v>416</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -5234,52 +5237,52 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5">
-      <c r="A20" s="104">
+      <c r="A20" s="100">
         <v>12</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="111" t="s">
         <v>421</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="81">
         <v>25</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="85" t="s">
         <v>599</v>
       </c>
       <c r="F20" s="13">
         <v>24</v>
       </c>
-      <c r="G20" s="109" t="s">
+      <c r="G20" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="112">
+      <c r="I20" s="108">
         <v>12</v>
       </c>
-      <c r="J20" s="113" t="s">
+      <c r="J20" s="109" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -5287,7 +5290,7 @@
       <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="118" t="s">
         <v>558</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5302,7 +5305,7 @@
       <c r="F22" s="11">
         <v>7</v>
       </c>
-      <c r="G22" s="114" t="s">
+      <c r="G22" s="110" t="s">
         <v>342</v>
       </c>
       <c r="H22" s="29" t="s">
@@ -5319,7 +5322,7 @@
       <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="118" t="s">
         <v>446</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5334,7 +5337,7 @@
       <c r="F23" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="112" t="s">
         <v>499</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -5351,7 +5354,7 @@
       <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="118" t="s">
         <v>403</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5366,13 +5369,13 @@
       <c r="F24" s="11">
         <v>9</v>
       </c>
-      <c r="G24" s="116" t="s">
+      <c r="G24" s="112" t="s">
         <v>283</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="69">
         <v>1.25</v>
       </c>
       <c r="J24" s="26" t="s">
@@ -5383,7 +5386,7 @@
       <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="110" t="s">
         <v>614</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5398,7 +5401,7 @@
       <c r="F25" s="11">
         <v>10</v>
       </c>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="117" t="s">
         <v>284</v>
       </c>
       <c r="H25" s="29" t="s">
@@ -5415,7 +5418,7 @@
       <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="110" t="s">
         <v>613</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5430,7 +5433,7 @@
       <c r="F26" s="11">
         <v>11</v>
       </c>
-      <c r="G26" s="116" t="s">
+      <c r="G26" s="112" t="s">
         <v>483</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -5442,25 +5445,25 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5">
-      <c r="A27" s="72">
+      <c r="A27" s="68">
         <v>6</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="110" t="s">
         <v>692</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="64">
         <v>25</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="95" t="s">
         <v>693</v>
       </c>
       <c r="F27" s="11">
         <v>12</v>
       </c>
-      <c r="G27" s="123" t="s">
+      <c r="G27" s="119" t="s">
         <v>420</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -5474,24 +5477,24 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
     </row>
     <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="105" t="s">
         <v>304</v>
       </c>
       <c r="C29" s="29" t="s">
@@ -5506,7 +5509,7 @@
       <c r="F29" s="11">
         <v>5</v>
       </c>
-      <c r="G29" s="114" t="s">
+      <c r="G29" s="110" t="s">
         <v>609</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -5523,7 +5526,7 @@
       <c r="A30" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="105" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="29" t="s">
@@ -5538,7 +5541,7 @@
       <c r="F30" s="11">
         <v>6</v>
       </c>
-      <c r="G30" s="114" t="s">
+      <c r="G30" s="110" t="s">
         <v>504</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -5562,7 +5565,7 @@
       <c r="F31" s="11">
         <v>7</v>
       </c>
-      <c r="G31" s="114" t="s">
+      <c r="G31" s="110" t="s">
         <v>405</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -5586,13 +5589,13 @@
       <c r="F32" s="11">
         <v>8</v>
       </c>
-      <c r="G32" s="114" t="s">
+      <c r="G32" s="110" t="s">
         <v>445</v>
       </c>
       <c r="H32" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="69">
+      <c r="I32" s="65">
         <v>25</v>
       </c>
       <c r="J32" s="26" t="s">
@@ -5600,20 +5603,20 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="127" t="s">
+      <c r="A33" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="129"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -5622,264 +5625,264 @@
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" ht="16.5">
-      <c r="A34" s="80">
+      <c r="A34" s="76">
         <v>1</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="118" t="s">
         <v>621</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="78">
         <v>25</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="79" t="s">
         <v>682</v>
       </c>
-      <c r="F34" s="80">
-        <v>9</v>
-      </c>
-      <c r="G34" s="84" t="s">
+      <c r="F34" s="76">
+        <v>9</v>
+      </c>
+      <c r="G34" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="85">
+      <c r="I34" s="81">
         <v>240</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="79" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5">
-      <c r="A35" s="80">
+      <c r="A35" s="76">
         <v>2</v>
       </c>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="118" t="s">
         <v>622</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="78">
         <v>25</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E35" s="82" t="s">
         <v>683</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="76">
         <v>10</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="85" t="s">
+      <c r="H35" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="85">
+      <c r="I35" s="81">
         <v>40</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="83" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5">
-      <c r="A36" s="80">
+      <c r="A36" s="76">
         <v>3</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="106" t="s">
         <v>513</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="78">
         <v>25</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="85" t="s">
         <v>450</v>
       </c>
-      <c r="F36" s="80">
+      <c r="F36" s="76">
         <v>11</v>
       </c>
-      <c r="G36" s="123" t="s">
+      <c r="G36" s="119" t="s">
         <v>455</v>
       </c>
-      <c r="H36" s="82" t="s">
+      <c r="H36" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="82">
+      <c r="I36" s="78">
         <v>25</v>
       </c>
-      <c r="J36" s="83" t="s">
+      <c r="J36" s="79" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5">
-      <c r="A37" s="80">
+      <c r="A37" s="76">
         <v>4</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="85">
+      <c r="D37" s="81">
         <v>25</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="76">
         <v>12</v>
       </c>
-      <c r="G37" s="123" t="s">
+      <c r="G37" s="119" t="s">
         <v>456</v>
       </c>
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="82">
+      <c r="I37" s="78">
         <v>25</v>
       </c>
-      <c r="J37" s="91" t="s">
+      <c r="J37" s="87" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5">
-      <c r="A38" s="80">
+      <c r="A38" s="76">
         <v>5</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="110" t="s">
         <v>668</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="81">
         <v>25</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="83" t="s">
         <v>675</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="76">
         <v>13</v>
       </c>
-      <c r="G38" s="134" t="s">
+      <c r="G38" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="82" t="s">
+      <c r="H38" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="92" t="s">
+      <c r="I38" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="J38" s="87" t="s">
+      <c r="J38" s="83" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5">
-      <c r="A39" s="80">
+      <c r="A39" s="76">
         <v>6</v>
       </c>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="110" t="s">
         <v>438</v>
       </c>
       <c r="C39" s="29"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="87" t="s">
+      <c r="D39" s="81"/>
+      <c r="E39" s="83" t="s">
         <v>676</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="76">
         <v>14</v>
       </c>
-      <c r="G39" s="134" t="s">
+      <c r="G39" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="93" t="s">
+      <c r="I39" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="87" t="s">
+      <c r="J39" s="83" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5">
-      <c r="A40" s="80">
+      <c r="A40" s="76">
         <v>7</v>
       </c>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="110" t="s">
         <v>671</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="81">
         <v>25</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="83" t="s">
         <v>672</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="76">
         <v>15</v>
       </c>
-      <c r="G40" s="81" t="s">
+      <c r="G40" s="77" t="s">
         <v>516</v>
       </c>
-      <c r="H40" s="88" t="s">
+      <c r="H40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="92" t="s">
+      <c r="I40" s="88" t="s">
         <v>517</v>
       </c>
-      <c r="J40" s="87" t="s">
+      <c r="J40" s="83" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5">
-      <c r="A41" s="94">
+      <c r="A41" s="90">
         <v>8</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="85">
+      <c r="D41" s="81">
         <v>25</v>
       </c>
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="76">
         <v>16</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="98"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="121" t="s">
         <v>472</v>
       </c>
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="129"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="123"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -5890,13 +5893,13 @@
       <c r="A43" s="11">
         <v>1</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="105" t="s">
         <v>506</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="61">
         <v>25</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -5905,7 +5908,7 @@
       <c r="F43" s="11">
         <v>5</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="110" t="s">
         <v>466</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -5922,13 +5925,13 @@
       <c r="A44" s="11">
         <v>2</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="105" t="s">
         <v>431</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="65">
+      <c r="D44" s="61">
         <v>25</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -5937,7 +5940,7 @@
       <c r="F44" s="11">
         <v>6</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="110" t="s">
         <v>467</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -5954,13 +5957,13 @@
       <c r="A45" s="11">
         <v>3</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="105" t="s">
         <v>413</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="62" t="s">
         <v>430</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -5969,7 +5972,7 @@
       <c r="F45" s="11">
         <v>7</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="110" t="s">
         <v>468</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5986,7 +5989,7 @@
       <c r="A46" s="11">
         <v>4</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="105" t="s">
         <v>508</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -6001,7 +6004,7 @@
       <c r="F46" s="11">
         <v>8</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="110" t="s">
         <v>575</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -6015,20 +6018,20 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="127" t="s">
+      <c r="A47" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="129"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="123"/>
     </row>
     <row r="48" spans="1:16" ht="16.5">
       <c r="A48" s="11">
@@ -6049,10 +6052,10 @@
       <c r="F48" s="11">
         <v>13</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="57" t="s">
+      <c r="H48" s="56" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="4">
@@ -6066,13 +6069,13 @@
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="57">
+      <c r="C49" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="56">
         <v>48</v>
       </c>
       <c r="E49" s="18" t="s">
@@ -6081,16 +6084,16 @@
       <c r="F49" s="11">
         <v>14</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="61">
+      <c r="H49" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="57">
         <v>72</v>
       </c>
-      <c r="J49" s="62" t="s">
+      <c r="J49" s="58" t="s">
         <v>580</v>
       </c>
     </row>
@@ -6098,13 +6101,13 @@
       <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="57">
+      <c r="C50" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="56">
         <v>60</v>
       </c>
       <c r="E50" s="18" t="s">
@@ -6113,7 +6116,7 @@
       <c r="F50" s="11">
         <v>15</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="134" t="s">
         <v>582</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -6122,7 +6125,7 @@
       <c r="I50" s="2">
         <v>72</v>
       </c>
-      <c r="J50" s="62" t="s">
+      <c r="J50" s="58" t="s">
         <v>581</v>
       </c>
     </row>
@@ -6130,13 +6133,13 @@
       <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="131" t="s">
         <v>577</v>
       </c>
-      <c r="C51" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="57">
+      <c r="C51" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="56">
         <v>40</v>
       </c>
       <c r="E51" s="18" t="s">
@@ -6145,7 +6148,7 @@
       <c r="F51" s="11">
         <v>16</v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="134" t="s">
         <v>181</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -6162,13 +6165,13 @@
       <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="57">
+      <c r="C52" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="56">
         <v>60</v>
       </c>
       <c r="E52" s="18" t="s">
@@ -6177,7 +6180,7 @@
       <c r="F52" s="11">
         <v>17</v>
       </c>
-      <c r="G52" s="59" t="s">
+      <c r="G52" s="134" t="s">
         <v>182</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -6194,13 +6197,13 @@
       <c r="A53" s="11">
         <v>6</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="57">
+      <c r="C53" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="56">
         <v>100</v>
       </c>
       <c r="E53" s="18" t="s">
@@ -6209,7 +6212,7 @@
       <c r="F53" s="11">
         <v>18</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="134" t="s">
         <v>120</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -6226,13 +6229,13 @@
       <c r="A54" s="11">
         <v>7</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="131" t="s">
         <v>347</v>
       </c>
-      <c r="C54" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="57">
+      <c r="C54" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="56">
         <v>60</v>
       </c>
       <c r="E54" s="18" t="s">
@@ -6241,7 +6244,7 @@
       <c r="F54" s="11">
         <v>19</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="133" t="s">
         <v>121</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -6258,7 +6261,7 @@
       <c r="A55" s="11">
         <v>8</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="133" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -6273,7 +6276,7 @@
       <c r="F55" s="11">
         <v>20</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="G55" s="135" t="s">
         <v>122</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -6290,7 +6293,7 @@
       <c r="A56" s="11">
         <v>9</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="133" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="29" t="s">
@@ -6305,13 +6308,13 @@
       <c r="F56" s="11">
         <v>21</v>
       </c>
-      <c r="G56" s="56" t="s">
+      <c r="G56" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="57">
+      <c r="H56" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="56">
         <v>25</v>
       </c>
       <c r="J56" s="18" t="s">
@@ -6322,7 +6325,7 @@
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="133" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -6337,10 +6340,10 @@
       <c r="F57" s="11">
         <v>22</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="131" t="s">
         <v>532</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="56" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="4"/>
@@ -6352,7 +6355,7 @@
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="133" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="29" t="s">
@@ -6367,13 +6370,13 @@
       <c r="F58" s="11">
         <v>23</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G58" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" s="57">
+      <c r="H58" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="56">
         <v>25</v>
       </c>
       <c r="J58" s="18" t="s">
@@ -6384,7 +6387,7 @@
       <c r="A59" s="11">
         <v>12</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="133" t="s">
         <v>279</v>
       </c>
       <c r="C59" s="29" t="s">
@@ -6411,18 +6414,18 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="127" t="s">
+      <c r="A60" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="129"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="123"/>
     </row>
     <row r="61" spans="1:10" ht="16.5">
       <c r="A61" s="11">
@@ -6487,20 +6490,20 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A63" s="127" t="s">
+      <c r="A63" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="128" t="s">
+      <c r="B63" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="128"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="128"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="129"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="123"/>
     </row>
     <row r="64" spans="1:10" ht="16.5">
       <c r="A64" s="11">
@@ -6653,20 +6656,20 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="128" t="s">
+      <c r="B69" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="128"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
-      <c r="H69" s="128"/>
-      <c r="I69" s="128"/>
-      <c r="J69" s="129"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="123"/>
     </row>
     <row r="70" spans="1:10" ht="16.5">
       <c r="A70" s="11">
@@ -6740,7 +6743,7 @@
       <c r="C72" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="63" t="s">
         <v>584</v>
       </c>
       <c r="E72" s="26" t="s">
@@ -7147,20 +7150,20 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="121" t="s">
         <v>474</v>
       </c>
-      <c r="B85" s="128" t="s">
+      <c r="B85" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
-      <c r="H85" s="128"/>
-      <c r="I85" s="128"/>
-      <c r="J85" s="129"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="122"/>
+      <c r="I85" s="122"/>
+      <c r="J85" s="123"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7590,20 +7593,20 @@
       </c>
     </row>
     <row r="100" spans="1:17" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A100" s="127" t="s">
+      <c r="A100" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="128" t="s">
+      <c r="B100" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="129"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="122"/>
+      <c r="G100" s="122"/>
+      <c r="H100" s="122"/>
+      <c r="I100" s="122"/>
+      <c r="J100" s="123"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -7637,7 +7640,7 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="71" t="s">
+      <c r="I101" s="67" t="s">
         <v>266</v>
       </c>
       <c r="J101" s="26" t="s">
@@ -7765,10 +7768,10 @@
       <c r="H105" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I105" s="63">
+      <c r="I105" s="59">
         <v>25</v>
       </c>
-      <c r="J105" s="64" t="s">
+      <c r="J105" s="60" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7878,7 +7881,7 @@
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="70" t="s">
+      <c r="D109" s="66" t="s">
         <v>430</v>
       </c>
       <c r="E109" s="18" t="s">
@@ -8029,18 +8032,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A114" s="127" t="s">
+      <c r="A114" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="128"/>
-      <c r="C114" s="128"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="128"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="128"/>
-      <c r="H114" s="128"/>
-      <c r="I114" s="128"/>
-      <c r="J114" s="129"/>
+      <c r="B114" s="122"/>
+      <c r="C114" s="122"/>
+      <c r="D114" s="122"/>
+      <c r="E114" s="122"/>
+      <c r="F114" s="122"/>
+      <c r="G114" s="122"/>
+      <c r="H114" s="122"/>
+      <c r="I114" s="122"/>
+      <c r="J114" s="123"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
@@ -8347,20 +8350,20 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A125" s="127" t="s">
+      <c r="A125" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="128" t="s">
+      <c r="B125" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="128"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="128"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="128"/>
-      <c r="H125" s="128"/>
-      <c r="I125" s="128"/>
-      <c r="J125" s="129"/>
+      <c r="C125" s="122"/>
+      <c r="D125" s="122"/>
+      <c r="E125" s="122"/>
+      <c r="F125" s="122"/>
+      <c r="G125" s="122"/>
+      <c r="H125" s="122"/>
+      <c r="I125" s="122"/>
+      <c r="J125" s="123"/>
     </row>
     <row r="126" spans="1:12" ht="16.5">
       <c r="A126" s="11">
@@ -8453,19 +8456,19 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5">
-      <c r="A129" s="105">
+      <c r="A129" s="101">
         <v>4</v>
       </c>
-      <c r="B129" s="106" t="s">
+      <c r="B129" s="102" t="s">
         <v>520</v>
       </c>
-      <c r="C129" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="107">
+      <c r="C129" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="103">
         <v>50</v>
       </c>
-      <c r="E129" s="108" t="s">
+      <c r="E129" s="104" t="s">
         <v>594</v>
       </c>
       <c r="F129" s="11">
@@ -9069,864 +9072,864 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A150" s="127" t="s">
+      <c r="A150" s="121" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="128"/>
-      <c r="C150" s="128"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="128"/>
-      <c r="F150" s="128"/>
-      <c r="G150" s="128"/>
-      <c r="H150" s="128"/>
-      <c r="I150" s="128"/>
-      <c r="J150" s="129"/>
+      <c r="B150" s="122"/>
+      <c r="C150" s="122"/>
+      <c r="D150" s="122"/>
+      <c r="E150" s="122"/>
+      <c r="F150" s="122"/>
+      <c r="G150" s="122"/>
+      <c r="H150" s="122"/>
+      <c r="I150" s="122"/>
+      <c r="J150" s="123"/>
     </row>
     <row r="151" spans="1:10" ht="16.5">
-      <c r="A151" s="80">
+      <c r="A151" s="76">
         <v>1</v>
       </c>
-      <c r="B151" s="100" t="s">
+      <c r="B151" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="C151" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="85">
+      <c r="C151" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="81">
         <v>1</v>
       </c>
-      <c r="E151" s="87" t="s">
+      <c r="E151" s="83" t="s">
         <v>679</v>
       </c>
-      <c r="F151" s="88">
+      <c r="F151" s="84">
         <v>27</v>
       </c>
-      <c r="G151" s="100" t="s">
+      <c r="G151" s="96" t="s">
         <v>404</v>
       </c>
-      <c r="H151" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I151" s="85">
+      <c r="H151" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I151" s="81">
         <v>10</v>
       </c>
-      <c r="J151" s="87" t="s">
+      <c r="J151" s="83" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5">
-      <c r="A152" s="80">
+      <c r="A152" s="76">
         <v>2</v>
       </c>
-      <c r="B152" s="100" t="s">
+      <c r="B152" s="96" t="s">
         <v>282</v>
       </c>
       <c r="C152" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="85">
+      <c r="D152" s="81">
         <v>1</v>
       </c>
-      <c r="E152" s="87" t="s">
+      <c r="E152" s="83" t="s">
         <v>680</v>
       </c>
-      <c r="F152" s="88">
+      <c r="F152" s="84">
         <v>28</v>
       </c>
-      <c r="G152" s="100" t="s">
+      <c r="G152" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="H152" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I152" s="85">
+      <c r="H152" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I152" s="81">
         <v>10</v>
       </c>
-      <c r="J152" s="87" t="s">
+      <c r="J152" s="83" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5">
-      <c r="A153" s="80">
+      <c r="A153" s="76">
         <v>3</v>
       </c>
-      <c r="B153" s="100" t="s">
+      <c r="B153" s="96" t="s">
         <v>626</v>
       </c>
-      <c r="C153" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="85">
+      <c r="C153" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="81">
         <v>1</v>
       </c>
-      <c r="E153" s="87" t="s">
+      <c r="E153" s="83" t="s">
         <v>627</v>
       </c>
-      <c r="F153" s="88">
+      <c r="F153" s="84">
         <v>29</v>
       </c>
-      <c r="G153" s="100" t="s">
+      <c r="G153" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="H153" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I153" s="85">
+      <c r="H153" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I153" s="81">
         <v>10</v>
       </c>
-      <c r="J153" s="87" t="s">
+      <c r="J153" s="83" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5">
-      <c r="A154" s="80">
+      <c r="A154" s="76">
         <v>4</v>
       </c>
-      <c r="B154" s="100" t="s">
+      <c r="B154" s="96" t="s">
         <v>606</v>
       </c>
       <c r="C154" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D154" s="85">
+      <c r="D154" s="81">
         <v>1</v>
       </c>
-      <c r="E154" s="87" t="s">
+      <c r="E154" s="83" t="s">
         <v>620</v>
       </c>
-      <c r="F154" s="88">
+      <c r="F154" s="84">
         <v>30</v>
       </c>
-      <c r="G154" s="100" t="s">
+      <c r="G154" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="H154" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I154" s="85">
+      <c r="H154" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I154" s="81">
         <v>10</v>
       </c>
-      <c r="J154" s="87" t="s">
+      <c r="J154" s="83" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5">
-      <c r="A155" s="80">
+      <c r="A155" s="76">
         <v>5</v>
       </c>
-      <c r="B155" s="100" t="s">
+      <c r="B155" s="96" t="s">
         <v>607</v>
       </c>
       <c r="C155" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="85">
+      <c r="D155" s="81">
         <v>1</v>
       </c>
-      <c r="E155" s="87" t="s">
+      <c r="E155" s="83" t="s">
         <v>608</v>
       </c>
-      <c r="F155" s="88">
+      <c r="F155" s="84">
         <v>31</v>
       </c>
-      <c r="G155" s="100" t="s">
+      <c r="G155" s="96" t="s">
         <v>461</v>
       </c>
-      <c r="H155" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I155" s="85">
+      <c r="H155" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I155" s="81">
         <v>10</v>
       </c>
-      <c r="J155" s="87" t="s">
+      <c r="J155" s="83" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5">
-      <c r="A156" s="80">
+      <c r="A156" s="76">
         <v>6</v>
       </c>
-      <c r="B156" s="101" t="s">
+      <c r="B156" s="97" t="s">
         <v>628</v>
       </c>
       <c r="C156" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="102">
+      <c r="D156" s="98">
         <v>1</v>
       </c>
-      <c r="E156" s="89" t="s">
+      <c r="E156" s="85" t="s">
         <v>629</v>
       </c>
-      <c r="F156" s="88">
+      <c r="F156" s="84">
         <v>32</v>
       </c>
-      <c r="G156" s="100" t="s">
+      <c r="G156" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="H156" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I156" s="85">
+      <c r="H156" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I156" s="81">
         <v>10</v>
       </c>
-      <c r="J156" s="87" t="s">
+      <c r="J156" s="83" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5">
-      <c r="A157" s="80">
+      <c r="A157" s="76">
         <v>7</v>
       </c>
-      <c r="B157" s="100" t="s">
+      <c r="B157" s="96" t="s">
         <v>630</v>
       </c>
-      <c r="C157" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="85">
+      <c r="C157" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="81">
         <v>1</v>
       </c>
-      <c r="E157" s="87" t="s">
+      <c r="E157" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="F157" s="88">
+      <c r="F157" s="84">
         <v>33</v>
       </c>
-      <c r="G157" s="100" t="s">
+      <c r="G157" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="H157" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I157" s="85">
+      <c r="H157" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I157" s="81">
         <v>10</v>
       </c>
-      <c r="J157" s="87" t="s">
+      <c r="J157" s="83" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5">
-      <c r="A158" s="80">
+      <c r="A158" s="76">
         <v>8</v>
       </c>
-      <c r="B158" s="88" t="s">
+      <c r="B158" s="84" t="s">
         <v>471</v>
       </c>
       <c r="C158" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="102">
+      <c r="D158" s="98">
         <v>1</v>
       </c>
-      <c r="E158" s="89" t="s">
+      <c r="E158" s="85" t="s">
         <v>631</v>
       </c>
-      <c r="F158" s="88">
+      <c r="F158" s="84">
         <v>34</v>
       </c>
-      <c r="G158" s="81" t="s">
+      <c r="G158" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="H158" s="82" t="s">
+      <c r="H158" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I158" s="82">
+      <c r="I158" s="78">
         <v>1</v>
       </c>
-      <c r="J158" s="87" t="s">
+      <c r="J158" s="83" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5">
-      <c r="A159" s="80">
-        <v>9</v>
-      </c>
-      <c r="B159" s="100" t="s">
+      <c r="A159" s="76">
+        <v>9</v>
+      </c>
+      <c r="B159" s="96" t="s">
         <v>632</v>
       </c>
-      <c r="C159" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="85">
+      <c r="C159" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="81">
         <v>10</v>
       </c>
-      <c r="E159" s="87" t="s">
+      <c r="E159" s="83" t="s">
         <v>633</v>
       </c>
-      <c r="F159" s="88">
+      <c r="F159" s="84">
         <v>35</v>
       </c>
-      <c r="G159" s="81" t="s">
+      <c r="G159" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="H159" s="82" t="s">
+      <c r="H159" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I159" s="82">
+      <c r="I159" s="78">
         <v>1</v>
       </c>
-      <c r="J159" s="89" t="s">
+      <c r="J159" s="85" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5">
-      <c r="A160" s="80">
+      <c r="A160" s="76">
         <v>10</v>
       </c>
-      <c r="B160" s="88" t="s">
+      <c r="B160" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="C160" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="102">
+      <c r="C160" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="98">
         <v>10</v>
       </c>
-      <c r="E160" s="89" t="s">
+      <c r="E160" s="85" t="s">
         <v>639</v>
       </c>
-      <c r="F160" s="88">
+      <c r="F160" s="84">
         <v>36</v>
       </c>
-      <c r="G160" s="81" t="s">
+      <c r="G160" s="77" t="s">
         <v>493</v>
       </c>
       <c r="H160" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I160" s="82">
+      <c r="I160" s="78">
         <v>1</v>
       </c>
-      <c r="J160" s="87" t="s">
+      <c r="J160" s="83" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5">
-      <c r="A161" s="80">
+      <c r="A161" s="76">
         <v>11</v>
       </c>
-      <c r="B161" s="88" t="s">
+      <c r="B161" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="C161" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="85">
+      <c r="C161" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="81">
         <v>10</v>
       </c>
-      <c r="E161" s="89" t="s">
+      <c r="E161" s="85" t="s">
         <v>642</v>
       </c>
-      <c r="F161" s="88">
+      <c r="F161" s="84">
         <v>37</v>
       </c>
-      <c r="G161" s="81" t="s">
+      <c r="G161" s="77" t="s">
         <v>498</v>
       </c>
       <c r="H161" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I161" s="82">
+      <c r="I161" s="78">
         <v>1</v>
       </c>
-      <c r="J161" s="87" t="s">
+      <c r="J161" s="83" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5">
-      <c r="A162" s="80">
+      <c r="A162" s="76">
         <v>12</v>
       </c>
-      <c r="B162" s="88" t="s">
+      <c r="B162" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="C162" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="85">
+      <c r="C162" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="81">
         <v>10</v>
       </c>
-      <c r="E162" s="89" t="s">
+      <c r="E162" s="85" t="s">
         <v>642</v>
       </c>
-      <c r="F162" s="88">
+      <c r="F162" s="84">
         <v>38</v>
       </c>
-      <c r="G162" s="88" t="s">
+      <c r="G162" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="H162" s="82" t="s">
+      <c r="H162" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I162" s="82">
+      <c r="I162" s="78">
         <v>1</v>
       </c>
-      <c r="J162" s="103" t="s">
+      <c r="J162" s="99" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5">
-      <c r="A163" s="80">
+      <c r="A163" s="76">
         <v>13</v>
       </c>
-      <c r="B163" s="100" t="s">
+      <c r="B163" s="96" t="s">
         <v>643</v>
       </c>
-      <c r="C163" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="85">
+      <c r="C163" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="81">
         <v>10</v>
       </c>
-      <c r="E163" s="87" t="s">
+      <c r="E163" s="83" t="s">
         <v>649</v>
       </c>
-      <c r="F163" s="88">
+      <c r="F163" s="84">
         <v>39</v>
       </c>
-      <c r="G163" s="100" t="s">
+      <c r="G163" s="96" t="s">
         <v>565</v>
       </c>
-      <c r="H163" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I163" s="85">
+      <c r="H163" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I163" s="81">
         <v>1</v>
       </c>
-      <c r="J163" s="87" t="s">
+      <c r="J163" s="83" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5">
-      <c r="A164" s="80">
+      <c r="A164" s="76">
         <v>14</v>
       </c>
-      <c r="B164" s="100" t="s">
+      <c r="B164" s="96" t="s">
         <v>644</v>
       </c>
       <c r="C164" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D164" s="85">
+      <c r="D164" s="81">
         <v>10</v>
       </c>
-      <c r="E164" s="87" t="s">
+      <c r="E164" s="83" t="s">
         <v>650</v>
       </c>
-      <c r="F164" s="88">
+      <c r="F164" s="84">
         <v>40</v>
       </c>
-      <c r="G164" s="100" t="s">
+      <c r="G164" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="H164" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" s="85">
+      <c r="H164" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I164" s="81">
         <v>1</v>
       </c>
-      <c r="J164" s="89" t="s">
+      <c r="J164" s="85" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5">
-      <c r="A165" s="80">
+      <c r="A165" s="76">
         <v>15</v>
       </c>
-      <c r="B165" s="100" t="s">
+      <c r="B165" s="96" t="s">
         <v>645</v>
       </c>
       <c r="C165" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="85">
+      <c r="D165" s="81">
         <v>10</v>
       </c>
-      <c r="E165" s="87" t="s">
+      <c r="E165" s="83" t="s">
         <v>651</v>
       </c>
-      <c r="F165" s="88">
+      <c r="F165" s="84">
         <v>41</v>
       </c>
-      <c r="G165" s="100" t="s">
+      <c r="G165" s="96" t="s">
         <v>563</v>
       </c>
-      <c r="H165" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I165" s="85">
+      <c r="H165" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I165" s="81">
         <v>1</v>
       </c>
-      <c r="J165" s="87" t="s">
+      <c r="J165" s="83" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5">
-      <c r="A166" s="80">
+      <c r="A166" s="76">
         <v>16</v>
       </c>
-      <c r="B166" s="100" t="s">
+      <c r="B166" s="96" t="s">
         <v>646</v>
       </c>
       <c r="C166" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D166" s="85">
+      <c r="D166" s="81">
         <v>10</v>
       </c>
-      <c r="E166" s="87" t="s">
+      <c r="E166" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="F166" s="88">
+      <c r="F166" s="84">
         <v>42</v>
       </c>
-      <c r="G166" s="81" t="s">
+      <c r="G166" s="77" t="s">
         <v>494</v>
       </c>
-      <c r="H166" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I166" s="82">
+      <c r="H166" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I166" s="78">
         <v>10</v>
       </c>
-      <c r="J166" s="83" t="s">
+      <c r="J166" s="79" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5">
-      <c r="A167" s="80">
+      <c r="A167" s="76">
         <v>17</v>
       </c>
-      <c r="B167" s="100" t="s">
+      <c r="B167" s="96" t="s">
         <v>647</v>
       </c>
-      <c r="C167" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="85">
+      <c r="C167" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="81">
         <v>10</v>
       </c>
-      <c r="E167" s="87" t="s">
+      <c r="E167" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="F167" s="88">
+      <c r="F167" s="84">
         <v>43</v>
       </c>
-      <c r="G167" s="90" t="s">
+      <c r="G167" s="86" t="s">
         <v>496</v>
       </c>
-      <c r="H167" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I167" s="82">
+      <c r="H167" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I167" s="78">
         <v>10</v>
       </c>
-      <c r="J167" s="83" t="s">
+      <c r="J167" s="79" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5">
-      <c r="A168" s="80">
+      <c r="A168" s="76">
         <v>18</v>
       </c>
-      <c r="B168" s="100" t="s">
+      <c r="B168" s="96" t="s">
         <v>648</v>
       </c>
-      <c r="C168" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="85">
+      <c r="C168" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="81">
         <v>10</v>
       </c>
-      <c r="E168" s="87" t="s">
+      <c r="E168" s="83" t="s">
         <v>681</v>
       </c>
-      <c r="F168" s="88">
+      <c r="F168" s="84">
         <v>44</v>
       </c>
-      <c r="G168" s="90" t="s">
+      <c r="G168" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="H168" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I168" s="82">
+      <c r="H168" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I168" s="78">
         <v>1</v>
       </c>
-      <c r="J168" s="87" t="s">
+      <c r="J168" s="83" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5">
-      <c r="A169" s="80">
+      <c r="A169" s="76">
         <v>19</v>
       </c>
-      <c r="B169" s="100" t="s">
+      <c r="B169" s="96" t="s">
         <v>654</v>
       </c>
-      <c r="C169" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="85">
+      <c r="C169" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="81">
         <v>10</v>
       </c>
-      <c r="E169" s="87" t="s">
+      <c r="E169" s="83" t="s">
         <v>655</v>
       </c>
-      <c r="F169" s="88">
+      <c r="F169" s="84">
         <v>45</v>
       </c>
-      <c r="G169" s="90" t="s">
+      <c r="G169" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="H169" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I169" s="82">
+      <c r="H169" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I169" s="78">
         <v>1</v>
       </c>
-      <c r="J169" s="87" t="s">
+      <c r="J169" s="83" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5">
-      <c r="A170" s="80">
+      <c r="A170" s="76">
         <v>20</v>
       </c>
-      <c r="B170" s="100" t="s">
+      <c r="B170" s="96" t="s">
         <v>656</v>
       </c>
-      <c r="C170" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="85">
+      <c r="C170" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="81">
         <v>1</v>
       </c>
-      <c r="E170" s="87" t="s">
+      <c r="E170" s="83" t="s">
         <v>657</v>
       </c>
-      <c r="F170" s="88">
+      <c r="F170" s="84">
         <v>46</v>
       </c>
-      <c r="G170" s="90" t="s">
+      <c r="G170" s="86" t="s">
         <v>140</v>
       </c>
       <c r="H170" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I170" s="82">
+      <c r="I170" s="78">
         <v>1</v>
       </c>
-      <c r="J170" s="83" t="s">
+      <c r="J170" s="79" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5">
-      <c r="A171" s="80">
+      <c r="A171" s="76">
         <v>21</v>
       </c>
-      <c r="B171" s="88" t="s">
+      <c r="B171" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="C171" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="85">
+      <c r="C171" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="81">
         <v>1</v>
       </c>
-      <c r="E171" s="89" t="s">
+      <c r="E171" s="85" t="s">
         <v>658</v>
       </c>
-      <c r="F171" s="88">
+      <c r="F171" s="84">
         <v>47</v>
       </c>
-      <c r="G171" s="90" t="s">
+      <c r="G171" s="86" t="s">
         <v>141</v>
       </c>
       <c r="H171" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I171" s="82">
+      <c r="I171" s="78">
         <v>1</v>
       </c>
-      <c r="J171" s="83" t="s">
+      <c r="J171" s="79" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5">
-      <c r="A172" s="80">
+      <c r="A172" s="76">
         <v>22</v>
       </c>
-      <c r="B172" s="100" t="s">
+      <c r="B172" s="96" t="s">
         <v>660</v>
       </c>
-      <c r="C172" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="85">
+      <c r="C172" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="81">
         <v>1</v>
       </c>
-      <c r="E172" s="87" t="s">
+      <c r="E172" s="83" t="s">
         <v>661</v>
       </c>
-      <c r="F172" s="88">
+      <c r="F172" s="84">
         <v>48</v>
       </c>
-      <c r="G172" s="90" t="s">
+      <c r="G172" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="H172" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I172" s="82">
+      <c r="H172" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" s="78">
         <v>1</v>
       </c>
-      <c r="J172" s="83" t="s">
+      <c r="J172" s="79" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5">
-      <c r="A173" s="80">
+      <c r="A173" s="76">
         <v>23</v>
       </c>
-      <c r="B173" s="100" t="s">
+      <c r="B173" s="96" t="s">
         <v>662</v>
       </c>
-      <c r="C173" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="85">
+      <c r="C173" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="81">
         <v>1</v>
       </c>
-      <c r="E173" s="87" t="s">
+      <c r="E173" s="83" t="s">
         <v>663</v>
       </c>
-      <c r="F173" s="88">
+      <c r="F173" s="84">
         <v>49</v>
       </c>
-      <c r="G173" s="100" t="s">
+      <c r="G173" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="H173" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I173" s="85">
+      <c r="H173" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I173" s="81">
         <v>1</v>
       </c>
-      <c r="J173" s="87" t="s">
+      <c r="J173" s="83" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5">
-      <c r="A174" s="80">
+      <c r="A174" s="76">
         <v>24</v>
       </c>
-      <c r="B174" s="81" t="s">
+      <c r="B174" s="77" t="s">
         <v>665</v>
       </c>
       <c r="C174" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="82">
+      <c r="D174" s="78">
         <v>1</v>
       </c>
-      <c r="E174" s="87" t="s">
+      <c r="E174" s="83" t="s">
         <v>664</v>
       </c>
-      <c r="F174" s="88">
+      <c r="F174" s="84">
         <v>50</v>
       </c>
-      <c r="G174" s="100" t="s">
+      <c r="G174" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="H174" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I174" s="85">
+      <c r="H174" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" s="81">
         <v>1</v>
       </c>
-      <c r="J174" s="87" t="s">
+      <c r="J174" s="83" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5">
-      <c r="A175" s="80">
+      <c r="A175" s="76">
         <v>25</v>
       </c>
-      <c r="B175" s="90" t="s">
+      <c r="B175" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C175" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="82">
+      <c r="C175" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="78">
         <v>1</v>
       </c>
-      <c r="E175" s="83" t="s">
+      <c r="E175" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="F175" s="88">
+      <c r="F175" s="84">
         <v>51</v>
       </c>
-      <c r="G175" s="100" t="s">
+      <c r="G175" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="H175" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I175" s="85">
+      <c r="H175" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" s="81">
         <v>1</v>
       </c>
-      <c r="J175" s="87" t="s">
+      <c r="J175" s="83" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5">
-      <c r="A176" s="80">
+      <c r="A176" s="76">
         <v>26</v>
       </c>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="77" t="s">
         <v>666</v>
       </c>
-      <c r="C176" s="82" t="s">
+      <c r="C176" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D176" s="82">
+      <c r="D176" s="78">
         <v>1</v>
       </c>
-      <c r="E176" s="103" t="s">
+      <c r="E176" s="99" t="s">
         <v>667</v>
       </c>
-      <c r="F176" s="88">
+      <c r="F176" s="84">
         <v>52</v>
       </c>
-      <c r="G176" s="100" t="s">
+      <c r="G176" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I176" s="85">
+      <c r="H176" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I176" s="81">
         <v>1</v>
       </c>
-      <c r="J176" s="87" t="s">
+      <c r="J176" s="83" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A177" s="127" t="s">
+      <c r="A177" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="128"/>
-      <c r="C177" s="128"/>
-      <c r="D177" s="128"/>
-      <c r="E177" s="128"/>
-      <c r="F177" s="128"/>
-      <c r="G177" s="128"/>
-      <c r="H177" s="128"/>
-      <c r="I177" s="128"/>
-      <c r="J177" s="129"/>
+      <c r="B177" s="122"/>
+      <c r="C177" s="122"/>
+      <c r="D177" s="122"/>
+      <c r="E177" s="122"/>
+      <c r="F177" s="122"/>
+      <c r="G177" s="122"/>
+      <c r="H177" s="122"/>
+      <c r="I177" s="122"/>
+      <c r="J177" s="123"/>
     </row>
     <row r="178" spans="1:11" ht="16.5">
       <c r="A178" s="11">
@@ -10210,20 +10213,20 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A187" s="127" t="s">
+      <c r="A187" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="128" t="s">
+      <c r="B187" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="C187" s="128"/>
-      <c r="D187" s="128"/>
-      <c r="E187" s="128"/>
-      <c r="F187" s="128"/>
-      <c r="G187" s="128"/>
-      <c r="H187" s="128"/>
-      <c r="I187" s="128"/>
-      <c r="J187" s="129"/>
+      <c r="C187" s="122"/>
+      <c r="D187" s="122"/>
+      <c r="E187" s="122"/>
+      <c r="F187" s="122"/>
+      <c r="G187" s="122"/>
+      <c r="H187" s="122"/>
+      <c r="I187" s="122"/>
+      <c r="J187" s="123"/>
     </row>
     <row r="188" spans="1:11" ht="16.5">
       <c r="A188" s="13">
@@ -10442,18 +10445,18 @@
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="16.5">
-      <c r="A196" s="124" t="s">
+      <c r="A196" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B196" s="125"/>
-      <c r="C196" s="125"/>
-      <c r="D196" s="125"/>
-      <c r="E196" s="125"/>
-      <c r="F196" s="125"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="125"/>
-      <c r="J196" s="126"/>
+      <c r="B196" s="129"/>
+      <c r="C196" s="129"/>
+      <c r="D196" s="129"/>
+      <c r="E196" s="129"/>
+      <c r="F196" s="129"/>
+      <c r="G196" s="129"/>
+      <c r="H196" s="129"/>
+      <c r="I196" s="129"/>
+      <c r="J196" s="130"/>
     </row>
     <row r="197" spans="1:10" ht="16.5">
       <c r="A197" s="8"/>
@@ -15309,6 +15312,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A196:J196"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A177:J177"/>
+    <mergeCell ref="A150:J150"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A63:J63"/>
@@ -15320,13 +15330,6 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A196:J196"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A150:J150"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C131" r:id="rId1"/>

--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
@@ -4720,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -15423,36 +15423,35 @@
     <hyperlink ref="H71" r:id="rId89"/>
     <hyperlink ref="C80" r:id="rId90"/>
     <hyperlink ref="H83" r:id="rId91"/>
-    <hyperlink ref="C38" r:id="rId92"/>
-    <hyperlink ref="H180" r:id="rId93" display="шт"/>
-    <hyperlink ref="C128" r:id="rId94"/>
-    <hyperlink ref="H181" r:id="rId95" display="шт"/>
-    <hyperlink ref="C130" r:id="rId96"/>
-    <hyperlink ref="H22" r:id="rId97" display="шт"/>
-    <hyperlink ref="C134" r:id="rId98"/>
-    <hyperlink ref="H161" r:id="rId99" display="шт"/>
-    <hyperlink ref="C129" r:id="rId100"/>
-    <hyperlink ref="C192" r:id="rId101"/>
-    <hyperlink ref="H12" r:id="rId102"/>
-    <hyperlink ref="C9" r:id="rId103"/>
-    <hyperlink ref="C10" r:id="rId104"/>
-    <hyperlink ref="C11" r:id="rId105"/>
-    <hyperlink ref="C17" r:id="rId106"/>
-    <hyperlink ref="H10" r:id="rId107"/>
-    <hyperlink ref="H20" r:id="rId108"/>
-    <hyperlink ref="C18" r:id="rId109"/>
-    <hyperlink ref="C19" r:id="rId110" display="кг"/>
-    <hyperlink ref="C13" r:id="rId111"/>
+    <hyperlink ref="H180" r:id="rId92" display="шт"/>
+    <hyperlink ref="C128" r:id="rId93"/>
+    <hyperlink ref="H181" r:id="rId94" display="шт"/>
+    <hyperlink ref="C130" r:id="rId95"/>
+    <hyperlink ref="H22" r:id="rId96" display="шт"/>
+    <hyperlink ref="C134" r:id="rId97"/>
+    <hyperlink ref="H161" r:id="rId98" display="шт"/>
+    <hyperlink ref="C129" r:id="rId99"/>
+    <hyperlink ref="C192" r:id="rId100"/>
+    <hyperlink ref="H12" r:id="rId101"/>
+    <hyperlink ref="C9" r:id="rId102"/>
+    <hyperlink ref="C10" r:id="rId103"/>
+    <hyperlink ref="C11" r:id="rId104"/>
+    <hyperlink ref="C17" r:id="rId105"/>
+    <hyperlink ref="H10" r:id="rId106"/>
+    <hyperlink ref="H20" r:id="rId107"/>
+    <hyperlink ref="C18" r:id="rId108"/>
+    <hyperlink ref="C19" r:id="rId109" display="кг"/>
+    <hyperlink ref="C13" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.17" right="7.874015748031496E-2" top="0" bottom="0" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId112"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId111"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;16Сторінка &amp;P з &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="99" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId113"/>
+  <drawing r:id="rId112"/>
 </worksheet>
 </file>
 

--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс_1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="695">
   <si>
     <t>ТОВ "ФІРМА "КААПРІ"</t>
   </si>
@@ -4720,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -8063,8 +8063,8 @@
       <c r="E115" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F115" s="11">
-        <v>11</v>
+      <c r="F115" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>85</v>
